--- a/rules.xlsx
+++ b/rules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Point out who drinks</t>
   </si>
@@ -221,17 +221,41 @@
     <t>New rules (add some reminders on screen? )</t>
   </si>
   <si>
-    <t>From now on everyone  drink with spread pinkie</t>
-  </si>
-  <si>
     <t>xD nimoa basi prostotiqta :D</t>
+  </si>
+  <si>
+    <t>From now on everyone  drink with spread pinkie else he/she have to drink</t>
+  </si>
+  <si>
+    <t>From now on everyone  have to say "Cheers" before drink or have to repeat</t>
+  </si>
+  <si>
+    <t>From now on nobody can say the word "Drink"</t>
+  </si>
+  <si>
+    <t>From now on NO swearing,</t>
+  </si>
+  <si>
+    <t>From now on NO pointing with an extended finger.</t>
+  </si>
+  <si>
+    <t>Players must drink with their secondary hand  (left if they're right-handed or right hand if they are lefties)</t>
+  </si>
+  <si>
+    <t>A glass cannot be put down empty, it must be refilled first</t>
+  </si>
+  <si>
+    <t>You must announce to the whole group ahead of time what action you’re about to perform in the toilet.</t>
+  </si>
+  <si>
+    <t>From now on Depersonalization (No first name, no pointing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +269,15 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,9 +301,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
@@ -863,10 +899,50 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="B49" t="s">
-        <v>66</v>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
